--- a/iktexc.xlsx
+++ b/iktexc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyarmaticsaba\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ikt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D875F-6404-44A7-802A-69966F0A748E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8A1DF-D6B2-4055-8A6B-F91F1743C4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BB6E1DF6-59DB-4F57-9752-01265EB57435}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="5" xr2:uid="{BB6E1DF6-59DB-4F57-9752-01265EB57435}"/>
   </bookViews>
   <sheets>
     <sheet name="utazás" sheetId="1" r:id="rId1"/>
@@ -230,12 +230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -247,14 +241,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE838E-7138-4A28-BBE0-57AEE4C65B64}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,150 +584,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
         <v>650</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
-        <v>18850</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8">
+        <v>37700</v>
+      </c>
+      <c r="C4" s="2">
         <v>2600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="1"/>
     </row>
   </sheetData>
@@ -757,130 +756,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -900,84 +899,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>3500</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,69 +1001,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1500</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>1500</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>1190</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>2290</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>3790</v>
       </c>
     </row>
@@ -1081,7 +1080,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,58 +1090,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>500</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E66981-891F-4085-8518-53215C6804B2}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,121 +1162,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
-        <v>15130</v>
-      </c>
-      <c r="C2" s="4">
-        <v>492060</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>15780</v>
+      </c>
+      <c r="C2" s="2">
+        <v>510910</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iktexc.xlsx
+++ b/iktexc.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ikt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\én\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8A1DF-D6B2-4055-8A6B-F91F1743C4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB712BA7-C10B-475E-AA49-E3FCCEB9F828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="5" xr2:uid="{BB6E1DF6-59DB-4F57-9752-01265EB57435}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6E1DF6-59DB-4F57-9752-01265EB57435}"/>
   </bookViews>
   <sheets>
-    <sheet name="utazás" sheetId="1" r:id="rId1"/>
+    <sheet name="Program" sheetId="1" r:id="rId1"/>
     <sheet name="szállás" sheetId="2" r:id="rId2"/>
     <sheet name="ellátás" sheetId="3" r:id="rId3"/>
     <sheet name="programok" sheetId="5" r:id="rId4"/>
@@ -25,15 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>ÚTAZÁS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Befogadó képesség:</t>
   </si>
@@ -119,9 +127,6 @@
     <t>1. nap</t>
   </si>
   <si>
-    <t>felnőttft /fő</t>
-  </si>
-  <si>
     <t>ft/fő</t>
   </si>
   <si>
@@ -129,13 +134,74 @@
   </si>
   <si>
     <t>lehetőség</t>
+  </si>
+  <si>
+    <t>UTAZÁS</t>
+  </si>
+  <si>
+    <t>felnőtt ft/fő</t>
+  </si>
+  <si>
+    <t>Felnőtt ft/fő</t>
+  </si>
+  <si>
+    <t>SZÁLLÁS (1 éjszaka)</t>
+  </si>
+  <si>
+    <t>Füvészkerti Szabaduló Szoba</t>
+  </si>
+  <si>
+    <t>füvészkert belépő jegy:</t>
+  </si>
+  <si>
+    <t>Diák Ft/fő</t>
+  </si>
+  <si>
+    <t>Felnőtt Ft/fő</t>
+  </si>
+  <si>
+    <t>Szabaduló Szoba</t>
+  </si>
+  <si>
+    <t>Szegedi hadipark</t>
+  </si>
+  <si>
+    <t>Belépő jegy:</t>
+  </si>
+  <si>
+    <t>Fekete Ház</t>
+  </si>
+  <si>
+    <t>PROGRAMOK</t>
+  </si>
+  <si>
+    <t>Csapatonként</t>
+  </si>
+  <si>
+    <t>belépő jegy:</t>
+  </si>
+  <si>
+    <t>Reggeli</t>
+  </si>
+  <si>
+    <t>Opcionális lehetőség</t>
+  </si>
+  <si>
+    <t>Ft/fő</t>
+  </si>
+  <si>
+    <t>Lehetséges Teljes Költség</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$Ft-40E]_-;\-* #,##0.00\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +210,35 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -215,17 +314,29 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,8 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -255,9 +364,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,9 +461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +501,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,170 +757,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE838E-7138-4A28-BBE0-57AEE4C65B64}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>650</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3" s="16">
         <v>1300</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8">
-        <v>37700</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <f xml:space="preserve"> A3*29+B3*2</f>
+        <v>21450</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15">
+        <f>D3*31</f>
+        <v>248000</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2100</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <f>A5+D5+D12+G13+G20+K15+K8+G8</f>
+        <v>604430</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="24">
+        <f>G6*29+H6*2</f>
+        <v>47700</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="24">
+        <f xml:space="preserve"> K6*31</f>
+        <v>46500</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="27">
+        <f xml:space="preserve"> D10*31</f>
+        <v>108500</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="24">
+        <f>G11*5</f>
+        <v>20000</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16">
+        <v>1190</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1890</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="28"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="27">
+        <f xml:space="preserve"> K13*29 +L13*2</f>
+        <v>38290</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="14"/>
+      <c r="G16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="14"/>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="14"/>
+      <c r="G18" s="16">
+        <v>2290</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3790</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+      <c r="G19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <f xml:space="preserve"> G18*29+ H18*2</f>
+        <v>73990</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="47">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,29 +1274,29 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -794,16 +1308,16 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -814,13 +1328,13 @@
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -830,13 +1344,13 @@
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -846,14 +1360,14 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -900,10 +1414,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -912,7 +1426,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>3500</v>
@@ -988,7 +1502,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,25 +1516,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>1500</v>
@@ -1031,23 +1545,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9">
         <v>1500</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6">
         <v>1190</v>
@@ -1058,7 +1572,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>2290</v>
@@ -1080,7 +1594,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,14 +1606,14 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>500</v>
@@ -1152,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E66981-891F-4085-8518-53215C6804B2}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1164,10 +1678,10 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
